--- a/docs/database/user.xlsx
+++ b/docs/database/user.xlsx
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tyoeid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -501,69 +501,69 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
